--- a/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
+++ b/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
@@ -384,13 +384,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Règle de validation d'enum : 
--Entreprise
--Opérateur
--Administration
--Partenaire</t>
-  </si>
-  <si>
     <t>Règle de validation d'enum :
 -PAPIER
 -PAPIER+EMAIL
@@ -415,6 +408,13 @@
   </si>
   <si>
     <t>Obligatoire si MEDIA non vide</t>
+  </si>
+  <si>
+    <t>Règle de validation d'enum : 
+-Entreprise
+-Operateur
+-Administration
+-Partenaire</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>26</v>
@@ -1211,7 +1211,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>26</v>
@@ -1223,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>26</v>
@@ -1248,7 +1248,7 @@
         <v>44</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>26</v>
@@ -1260,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>26</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">

--- a/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
+++ b/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>FIELD</t>
   </si>
@@ -416,12 +416,18 @@
 -Administration
 -Partenaire</t>
   </si>
+  <si>
+    <t>RG-20</t>
+  </si>
+  <si>
+    <t>Obligatoire si NIV_HIERARCHIE_CLIENT = Client</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +471,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -526,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,6 +571,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,16 +1093,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="11"/>
   </cols>
   <sheetData>
@@ -1327,6 +1349,18 @@
         <v>26</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
+++ b/TransformationTools/reports/template/TechnicalReportTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -324,14 +324,6 @@
     <t>RG-9</t>
   </si>
   <si>
-    <t>Règle de validation d'enum :
-- PRODUIT
-- CLIENT
-- DOUANES
-- INTERCO VOIX ENTRANT
-- WIFI ROAMING</t>
-  </si>
-  <si>
     <t>RG-10</t>
   </si>
   <si>
@@ -420,7 +412,15 @@
     <t>RG-20</t>
   </si>
   <si>
-    <t>Obligatoire si NIV_HIERARCHIE_CLIENT = Client</t>
+    <t>Règle de validation d'enum :
+- produit
+- client
+- administration
+- interco-voix-entrant
+- wifi-roaming</t>
+  </si>
+  <si>
+    <t>Obligatoire si NIV_HIERARCHIE_CLIENT=Client</t>
   </si>
 </sst>
 </file>
@@ -539,33 +539,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,15 +563,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,25 +928,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -981,11 +976,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,13 +995,13 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1030,54 +1025,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="25" style="12" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="2" width="37.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1095,271 +1090,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="A1:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="47.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="11"/>
+    <col min="3" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>65</v>
       </c>
       <c r="B21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="C21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
